--- a/SUMMARY/07-17-2014 - FP&SAV - Scheffer - move parameters/simulation_summary_07-17-2014.xlsx
+++ b/SUMMARY/07-17-2014 - FP&SAV - Scheffer - move parameters/simulation_summary_07-17-2014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Functions used:</t>
   </si>
@@ -247,9 +247,6 @@
     <t>07-17-2014 - FP&amp;SAV - Scheffer - move parameters</t>
   </si>
   <si>
-    <t>7/17/2014 ~3:00 PM</t>
-  </si>
-  <si>
     <t>15, 30</t>
   </si>
   <si>
@@ -269,6 +266,12 @@
   </si>
   <si>
     <t>output24.csv</t>
+  </si>
+  <si>
+    <t>7/22/2014 ~6:50AM</t>
+  </si>
+  <si>
+    <t>7/21/2014 ~7:45AM</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +732,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -747,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -757,7 +761,9 @@
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
@@ -777,10 +783,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
@@ -801,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>67</v>
@@ -821,10 +827,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
@@ -844,10 +850,10 @@
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -911,7 +917,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
@@ -937,11 +943,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
@@ -984,14 +990,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>16</v>
@@ -1001,14 +1007,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -1018,14 +1024,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -1035,14 +1041,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>23</v>
@@ -1052,7 +1058,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="4">
@@ -1069,14 +1075,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>27</v>
@@ -1086,14 +1092,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>73</v>
@@ -1103,7 +1109,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="4">
@@ -1120,14 +1126,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>75</v>
